--- a/output.xlsx
+++ b/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,7 +404,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{"idcursoanio":831,"ideje":1}</t>
+          <t>{"idcursoanio":831,"ideje":1,"usuariologin":"MONICA.FERNANDEZ.GUT","passwordlogin":"MONICA9090"}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -413,17 +413,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.958857</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x000001639865CA90&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -431,7 +427,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{"idcursoanio":830,"ideje":2}</t>
+          <t>{"idcursoanio":830,"ideje":2,"usuariologin":"MONICA.FERNANDEZ.GUT","passwordlogin":"MONICA9090"}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -440,17 +436,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.477617</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986A25F8&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -458,7 +450,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{"idcursoanio":828,"ideje":1}</t>
+          <t>{"idcursoanio":828,"ideje":1,"usuariologin":"MONICA.FERNANDEZ.GUT","passwordlogin":"MONICA9090"}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -467,17 +459,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.635547</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x000001639865C080&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -485,7 +473,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{"idcursoanio":825,"ideje":1}</t>
+          <t>{"idcursoanio":825,"ideje":1,"usuariologin":"MONICA.FERNANDEZ.GUT","passwordlogin":"MONICA9090"}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -494,17 +482,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5.438009</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986A2278&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -512,7 +496,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{"idcursoanio":824,"ideje":1}</t>
+          <t>{"idcursoanio":824,"ideje":1,"usuariologin":"MONICA.FERNANDEZ.GUT","passwordlogin":"MONICA9090"}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -521,422 +505,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5.154901</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986A2CC0&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":822,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986AC3C8&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":820,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986ACA90&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":816,"ideje":2}</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986BF1D0&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":815,"ideje":2}</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986AC208&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":814,"ideje":2}</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x000001639865C198&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":811,"ideje":2}</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986BF080&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":810,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986BF940&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":809,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986A8048&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":800,"ideje":3}</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986A8710&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":799,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986BF978&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":796,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x000001639865C0B8&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":795,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x000001638F8CDF98&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":794,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986AC438&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":791,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986A8438&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>{"idcursoanio":790,"ideje":1}</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>http://localhost:5000/PostReforzamientoEjeCurso</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='localhost', port=5000): Max retries exceeded with url: /PostReforzamientoEjeCurso (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000163986A8DD8&gt;: Failed to establish a new connection: [WinError 10061] No se puede establecer una conexión ya que el equipo de destino denegó expresamente dicha conexión',))</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
